--- a/translation/xlsx/_meak_021_2.xlsx
+++ b/translation/xlsx/_meak_021_2.xlsx
@@ -2253,7 +2253,7 @@
     <t>\"......Goodbye, torture maniac.</t>
   </si>
   <si>
-    <t xml:space="preserve">\"......그럼, 안녕 냉혈녀. </t>
+    <t xml:space="preserve">\"......그럼, 안녕 고문광. </t>
   </si>
   <si>
     <t>お前なんかに殺されてたまるか。」</t>
